--- a/raw_data/poverty/poverty.xlsx
+++ b/raw_data/poverty/poverty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mollywilson/github/kuni_fads/raw_data/poverty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D36F71-AB7C-0B48-909E-64A5571B5E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C50622-6493-684D-918B-34B55E3689D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="460" windowWidth="10000" windowHeight="15940" xr2:uid="{73CBCADD-E18D-7348-B88B-912D96B4B2D5}"/>
+    <workbookView xWindow="11780" yWindow="460" windowWidth="10000" windowHeight="15940" xr2:uid="{73CBCADD-E18D-7348-B88B-912D96B4B2D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>poverty_rate</t>
+  </si>
+  <si>
+    <t>CALC</t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,6 +717,15 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="C6">
+        <v>19.3</v>
+      </c>
+      <c r="D6">
+        <v>2014</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -765,7 +777,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">

--- a/raw_data/poverty/poverty.xlsx
+++ b/raw_data/poverty/poverty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mollywilson/github/kuni_fads/raw_data/poverty/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretwilson/github/kuni_fads/raw_data/poverty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C50622-6493-684D-918B-34B55E3689D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB098BE-322D-8A4A-A7C4-C26A7C849761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11780" yWindow="460" windowWidth="10000" windowHeight="15940" xr2:uid="{73CBCADD-E18D-7348-B88B-912D96B4B2D5}"/>
+    <workbookView xWindow="11780" yWindow="460" windowWidth="10000" windowHeight="14180" xr2:uid="{73CBCADD-E18D-7348-B88B-912D96B4B2D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -72,15 +72,6 @@
     <t>Bonaire</t>
   </si>
   <si>
-    <t>BES</t>
-  </si>
-  <si>
-    <t>Sint Eustatius</t>
-  </si>
-  <si>
-    <t>Saba</t>
-  </si>
-  <si>
     <t>Cayman Islands</t>
   </si>
   <si>
@@ -241,6 +232,15 @@
   </si>
   <si>
     <t>CALC</t>
+  </si>
+  <si>
+    <t>BON</t>
+  </si>
+  <si>
+    <t>Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>ESS</t>
   </si>
 </sst>
 </file>
@@ -625,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3863D8D2-29A2-A749-B6F2-840120D1FFB5}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,13 +641,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -664,7 +664,7 @@
         <v>2002</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -678,10 +678,10 @@
         <v>18.399999999999999</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -707,7 +707,7 @@
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -724,15 +724,15 @@
         <v>2014</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -741,7 +741,7 @@
         <v>2008</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -749,283 +749,275 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>2009</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
       <c r="C14">
-        <v>29</v>
+        <v>30.5</v>
       </c>
       <c r="D14">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>2008</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="C15">
-        <v>30.5</v>
-      </c>
-      <c r="D15">
-        <v>2016</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16">
-        <v>38</v>
-      </c>
-      <c r="D16">
-        <v>2008</v>
-      </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
+      <c r="C17">
+        <v>58.5</v>
+      </c>
+      <c r="D17">
+        <v>2012</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D18">
+        <v>2016</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="C18">
-        <v>58.5</v>
-      </c>
-      <c r="D18">
-        <v>2012</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="B19" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="D19">
-        <v>2016</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="s">
-        <v>41</v>
+      <c r="C23">
+        <v>21.8</v>
+      </c>
+      <c r="D23">
+        <v>2007</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24">
+        <v>28.8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="C24">
-        <v>21.8</v>
-      </c>
-      <c r="D24">
-        <v>2007</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C25">
-        <v>28.8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26">
+        <v>30.2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C27">
-        <v>30.2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>2014</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="B29" t="s">
         <v>52</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29">
-        <v>20</v>
-      </c>
-      <c r="D29">
-        <v>2014</v>
-      </c>
-      <c r="E29" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="B30" t="s">
-        <v>55</v>
+      <c r="C30">
+        <v>28.9</v>
+      </c>
+      <c r="D30">
+        <v>2002</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
         <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31">
-        <v>28.9</v>
-      </c>
-      <c r="D31">
-        <v>2002</v>
-      </c>
-      <c r="E31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
